--- a/PointCould_Classification/trainings.xlsx
+++ b/PointCould_Classification/trainings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubProjects\IndividualProject\PointCould_Classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A9FFEB-25F7-4396-81AE-42E72126399C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF48B5A-A9D9-4D2D-8065-B0E677565323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27488" yWindow="-114" windowWidth="27602" windowHeight="14899" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-114" yWindow="-114" windowWidth="27602" windowHeight="14927" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3DmFV" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="82">
   <si>
     <t>epochs</t>
   </si>
@@ -270,6 +270,9 @@
   </si>
   <si>
     <t>results\KDE\wl_tt_rt_gd=64_ks=2_epoch=100_13000_Clean_globavg_deep</t>
+  </si>
+  <si>
+    <t>kernel size = 1, repeated 2 times</t>
   </si>
 </sst>
 </file>
@@ -1144,7 +1147,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1700,14 +1703,14 @@
   <hyperlinks>
     <hyperlink ref="O2" r:id="rId1" xr:uid="{1B75A89D-0C05-438E-96A4-E6EC9D42327C}"/>
     <hyperlink ref="O3" r:id="rId2" xr:uid="{C8F96D26-BB73-49C6-B67F-65EAB105D17B}"/>
-    <hyperlink ref="O4" r:id="rId3" xr:uid="{F581310A-A6A6-4DB2-AF54-24F77AB9835E}"/>
-    <hyperlink ref="O5" r:id="rId4" xr:uid="{BB984305-FEC1-4EDF-9C2A-5293372CD1AB}"/>
-    <hyperlink ref="O6" r:id="rId5" xr:uid="{9339664D-7D6D-4D5D-ACB7-FA6DB8216860}"/>
-    <hyperlink ref="O8" r:id="rId6" xr:uid="{B9B13514-4691-406E-9A95-7D87A2E0FBCE}"/>
-    <hyperlink ref="O7" r:id="rId7" xr:uid="{3579B1A4-130C-4A24-859C-285EB360633B}"/>
-    <hyperlink ref="O9" r:id="rId8" xr:uid="{500F5594-3DFB-4122-9863-0A51128D2193}"/>
-    <hyperlink ref="O10" r:id="rId9" xr:uid="{9600537C-EF57-4853-B9BA-F16064EDD60B}"/>
-    <hyperlink ref="O11" r:id="rId10" xr:uid="{68AE0B4A-523F-4604-9C78-7CC21315FEAC}"/>
+    <hyperlink ref="O5" r:id="rId3" xr:uid="{BB984305-FEC1-4EDF-9C2A-5293372CD1AB}"/>
+    <hyperlink ref="O6" r:id="rId4" xr:uid="{9339664D-7D6D-4D5D-ACB7-FA6DB8216860}"/>
+    <hyperlink ref="O8" r:id="rId5" xr:uid="{B9B13514-4691-406E-9A95-7D87A2E0FBCE}"/>
+    <hyperlink ref="O7" r:id="rId6" xr:uid="{3579B1A4-130C-4A24-859C-285EB360633B}"/>
+    <hyperlink ref="O9" r:id="rId7" xr:uid="{500F5594-3DFB-4122-9863-0A51128D2193}"/>
+    <hyperlink ref="O10" r:id="rId8" xr:uid="{9600537C-EF57-4853-B9BA-F16064EDD60B}"/>
+    <hyperlink ref="O11" r:id="rId9" xr:uid="{68AE0B4A-523F-4604-9C78-7CC21315FEAC}"/>
+    <hyperlink ref="O4" r:id="rId10" xr:uid="{8A4AC59F-8EB7-4127-80A1-5D2B1036044D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1718,7 +1721,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -2478,22 +2481,22 @@
         <v>64</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G15" s="7">
-        <v>0.90816844241501704</v>
+        <v>0.91577879249112104</v>
       </c>
       <c r="H15" s="7">
-        <v>0.90762569516856895</v>
+        <v>0.886259069320808</v>
       </c>
       <c r="I15" s="3">
-        <v>5.4278495334443497E-2</v>
+        <v>5.5386801560719803E-2</v>
       </c>
       <c r="J15" s="9">
-        <v>0.89900952380952304</v>
+        <v>0.90131428571428496</v>
       </c>
       <c r="K15" s="5">
-        <v>5.47841924171171E-2</v>
+        <v>5.4332254381038003E-2</v>
       </c>
       <c r="L15">
         <v>12</v>
@@ -2509,6 +2512,9 @@
       </c>
       <c r="P15" s="1" t="s">
         <v>80</v>
+      </c>
+      <c r="Q15" s="24" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
